--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA2BA3-1FE7-964B-9587-C6113650E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4111041-932E-E742-9D10-3A2304E07D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,9 +40,6 @@
     <t>Instance</t>
   </si>
   <si>
-    <t>Constructive Heuristic 1</t>
-  </si>
-  <si>
     <t>Solution</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Optimal solution</t>
+  </si>
+  <si>
+    <t>Nearest Neighbour</t>
   </si>
 </sst>
 </file>
@@ -182,17 +182,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -507,81 +507,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD008E-1479-1149-A6C0-2F37AA540936}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>49336</v>
+      </c>
+      <c r="C3">
+        <v>14.544</v>
       </c>
       <c r="D3">
         <f>(B3-$K3)/$K3</f>
-        <v>-1</v>
+        <v>0.22848605577689243</v>
       </c>
       <c r="G3">
         <f>(E3-$K3)/$K3</f>
@@ -603,11 +610,17 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8980</v>
+      </c>
+      <c r="C4">
+        <v>0.95199999999999996</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D15" si="0">(B4-$K4)/$K4</f>
-        <v>-1</v>
+        <v>0.19066560594006896</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G15" si="1">(E4-$K4)/$K4</f>
@@ -629,11 +642,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4048</v>
+      </c>
+      <c r="C5">
+        <v>3.9E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.21817634667469155</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -655,11 +674,17 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8191</v>
+      </c>
+      <c r="C6">
+        <v>8.1959999999999997</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.25474877450980393</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -681,11 +706,17 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>41660</v>
+      </c>
+      <c r="C7">
+        <v>46.723999999999997</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.19021770184560882</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -707,11 +738,17 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>24630960</v>
+      </c>
+      <c r="C8">
+        <v>282.44600000000003</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.32000920915719488</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -733,11 +770,17 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>511</v>
+      </c>
+      <c r="C9">
+        <v>0.88900000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.19953051643192488</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -759,11 +802,17 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>162430</v>
+      </c>
+      <c r="C10">
+        <v>19.536000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.2067428418597049</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -779,17 +828,23 @@
         <f t="shared" si="2"/>
         <v>0.33840507570467004</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>134602</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>27807</v>
+      </c>
+      <c r="C11">
+        <v>1.649</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.30659712433042008</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -811,11 +866,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>26947</v>
+      </c>
+      <c r="C12">
+        <v>3.4260000000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.26547384239691935</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -837,11 +898,17 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>61979</v>
+      </c>
+      <c r="C13">
+        <v>69.108999999999995</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.22058765607152703</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
@@ -863,11 +930,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>9988</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.45618894882635952</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -889,11 +962,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>10586</v>
+      </c>
+      <c r="C15">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.50948238984742622</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -911,6 +990,16 @@
       </c>
       <c r="K15">
         <v>7013</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>AVERAGE(D3:D15)</f>
+        <v>0.27437746258988793</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(J3:J15)</f>
+        <v>0.28277837840086217</v>
       </c>
     </row>
   </sheetData>

--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4111041-932E-E742-9D10-3A2304E07D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A98A4A-2201-6D45-92AC-CC845EF11F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Constructive Heuristic 2</t>
-  </si>
-  <si>
     <t>2-approximation</t>
   </si>
   <si>
@@ -98,13 +95,16 @@
   </si>
   <si>
     <t>Nearest Neighbour</t>
+  </si>
+  <si>
+    <t>Closest Insertion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +116,12 @@
       <sz val="12"/>
       <color rgb="FF303030"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,6 +199,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -510,7 +518,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,22 +535,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -578,7 +586,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>49336</v>
@@ -590,9 +598,15 @@
         <f>(B3-$K3)/$K3</f>
         <v>0.22848605577689243</v>
       </c>
+      <c r="E3" s="6">
+        <v>47170</v>
+      </c>
+      <c r="F3" s="6">
+        <v>286.298</v>
+      </c>
       <c r="G3">
         <f>(E3-$K3)/$K3</f>
-        <v>-1</v>
+        <v>0.17455179282868527</v>
       </c>
       <c r="H3">
         <v>51990</v>
@@ -610,7 +624,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>8980</v>
@@ -622,9 +636,15 @@
         <f t="shared" ref="D4:D15" si="0">(B4-$K4)/$K4</f>
         <v>0.19066560594006896</v>
       </c>
+      <c r="E4" s="6">
+        <v>8991</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.3220000000000001</v>
+      </c>
       <c r="G4">
         <f t="shared" ref="G4:G15" si="1">(E4-$K4)/$K4</f>
-        <v>-1</v>
+        <v>0.19212410501193317</v>
       </c>
       <c r="H4">
         <v>10114</v>
@@ -642,7 +662,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>4048</v>
@@ -654,9 +674,15 @@
         <f t="shared" si="0"/>
         <v>0.21817634667469155</v>
       </c>
+      <c r="E5" s="6">
+        <v>3588</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.2</v>
+      </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>7.974721637074933E-2</v>
       </c>
       <c r="H5">
         <v>3814</v>
@@ -674,7 +700,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>8191</v>
@@ -686,9 +712,15 @@
         <f t="shared" si="0"/>
         <v>0.25474877450980393</v>
       </c>
+      <c r="E6" s="6">
+        <v>7968</v>
+      </c>
+      <c r="F6" s="6">
+        <v>119.268</v>
+      </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.22058823529411764</v>
       </c>
       <c r="H6">
         <v>8413</v>
@@ -706,7 +738,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>41660</v>
@@ -718,9 +750,15 @@
         <f t="shared" si="0"/>
         <v>0.19021770184560882</v>
       </c>
+      <c r="E7" s="6">
+        <v>41459</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4186.1570000000002</v>
+      </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.18447517284726586</v>
       </c>
       <c r="H7">
         <v>44953</v>
@@ -738,7 +776,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>24630960</v>
@@ -750,9 +788,15 @@
         <f t="shared" si="0"/>
         <v>0.32000920915719488</v>
       </c>
+      <c r="E8" s="6">
+        <v>22723503</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44646.220999999998</v>
+      </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.21778579577536344</v>
       </c>
       <c r="H8">
         <v>25086767</v>
@@ -770,7 +814,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>511</v>
@@ -782,9 +826,15 @@
         <f t="shared" si="0"/>
         <v>0.19953051643192488</v>
       </c>
+      <c r="E9" s="6">
+        <v>494</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5.125</v>
+      </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.15962441314553991</v>
       </c>
       <c r="H9">
         <v>581</v>
@@ -802,7 +852,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>162430</v>
@@ -814,9 +864,15 @@
         <f t="shared" si="0"/>
         <v>0.2067428418597049</v>
       </c>
+      <c r="E10" s="6">
+        <v>156823</v>
+      </c>
+      <c r="F10" s="6">
+        <v>435.07</v>
+      </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.16508670004903345</v>
       </c>
       <c r="H10">
         <v>180152</v>
@@ -834,7 +890,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>27807</v>
@@ -846,9 +902,15 @@
         <f t="shared" si="0"/>
         <v>0.30659712433042008</v>
       </c>
+      <c r="E11" s="6">
+        <v>25868</v>
+      </c>
+      <c r="F11" s="6">
+        <v>38.345999999999997</v>
+      </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.21548726623437647</v>
       </c>
       <c r="H11">
         <v>27210</v>
@@ -866,7 +928,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>26947</v>
@@ -878,9 +940,15 @@
         <f t="shared" si="0"/>
         <v>0.26547384239691935</v>
       </c>
+      <c r="E12" s="6">
+        <v>25219</v>
+      </c>
+      <c r="F12" s="6">
+        <v>41.043999999999997</v>
+      </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.18432422278576124</v>
       </c>
       <c r="H12">
         <v>27112</v>
@@ -898,7 +966,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>61979</v>
@@ -910,9 +978,15 @@
         <f t="shared" si="0"/>
         <v>0.22058765607152703</v>
       </c>
+      <c r="E13" s="6">
+        <v>61119</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3277.1320000000001</v>
+      </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.20365118752215527</v>
       </c>
       <c r="H13">
         <v>69623</v>
@@ -930,7 +1004,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>9988</v>
@@ -942,9 +1016,15 @@
         <f t="shared" si="0"/>
         <v>0.45618894882635952</v>
       </c>
+      <c r="E14" s="6">
+        <v>7712</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.12436215191718909</v>
       </c>
       <c r="H14">
         <v>7903</v>
@@ -962,7 +1042,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>10586</v>
@@ -974,9 +1054,15 @@
         <f t="shared" si="0"/>
         <v>0.50948238984742622</v>
       </c>
+      <c r="E15" s="6">
+        <v>7816</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.11450163981177813</v>
       </c>
       <c r="H15">
         <v>8401</v>
@@ -996,6 +1082,10 @@
       <c r="D17">
         <f>AVERAGE(D3:D15)</f>
         <v>0.27437746258988793</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(G3:G15)</f>
+        <v>0.17202383843030372</v>
       </c>
       <c r="J17">
         <f>AVERAGE(J3:J15)</f>

--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A98A4A-2201-6D45-92AC-CC845EF11F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C579826-600A-2949-9B35-8E11D45DFD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -190,6 +190,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,8 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,30 +531,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -598,10 +598,10 @@
         <f>(B3-$K3)/$K3</f>
         <v>0.22848605577689243</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>47170</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>286.298</v>
       </c>
       <c r="G3">
@@ -636,10 +636,10 @@
         <f t="shared" ref="D4:D15" si="0">(B4-$K4)/$K4</f>
         <v>0.19066560594006896</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>8991</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>5.3220000000000001</v>
       </c>
       <c r="G4">
@@ -674,10 +674,10 @@
         <f t="shared" si="0"/>
         <v>0.21817634667469155</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>3588</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>0.2</v>
       </c>
       <c r="G5">
@@ -712,10 +712,10 @@
         <f t="shared" si="0"/>
         <v>0.25474877450980393</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>7968</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>119.268</v>
       </c>
       <c r="G6">
@@ -750,10 +750,10 @@
         <f t="shared" si="0"/>
         <v>0.19021770184560882</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>41459</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>4186.1570000000002</v>
       </c>
       <c r="G7">
@@ -788,10 +788,10 @@
         <f t="shared" si="0"/>
         <v>0.32000920915719488</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>22723503</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>44646.220999999998</v>
       </c>
       <c r="G8">
@@ -826,10 +826,10 @@
         <f t="shared" si="0"/>
         <v>0.19953051643192488</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>494</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>5.125</v>
       </c>
       <c r="G9">
@@ -864,10 +864,10 @@
         <f t="shared" si="0"/>
         <v>0.2067428418597049</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>156823</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>435.07</v>
       </c>
       <c r="G10">
@@ -902,10 +902,10 @@
         <f t="shared" si="0"/>
         <v>0.30659712433042008</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>25868</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>38.345999999999997</v>
       </c>
       <c r="G11">
@@ -940,10 +940,10 @@
         <f t="shared" si="0"/>
         <v>0.26547384239691935</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>25219</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>41.043999999999997</v>
       </c>
       <c r="G12">
@@ -978,10 +978,10 @@
         <f t="shared" si="0"/>
         <v>0.22058765607152703</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>61119</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>3277.1320000000001</v>
       </c>
       <c r="G13">
@@ -1016,10 +1016,10 @@
         <f t="shared" si="0"/>
         <v>0.45618894882635952</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>7712</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>0.23899999999999999</v>
       </c>
       <c r="G14">
@@ -1054,10 +1054,10 @@
         <f t="shared" si="0"/>
         <v>0.50948238984742622</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>7816</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>0.53100000000000003</v>
       </c>
       <c r="G15">

--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C579826-600A-2949-9B35-8E11D45DFD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFD305-CBEA-F445-83A6-EFA6B94CA3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="-1240" yWindow="-15500" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Instance</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>Closest Insertion</t>
+  </si>
+  <si>
+    <t>N Execution</t>
+  </si>
+  <si>
+    <t>Time(ms)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -515,590 +518,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD008E-1479-1149-A6C0-2F37AA540936}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>49336</v>
+        <v>8980</v>
       </c>
       <c r="C3">
-        <v>14.544</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D3">
-        <f>(B3-$K3)/$K3</f>
-        <v>0.22848605577689243</v>
-      </c>
-      <c r="E3" s="3">
-        <v>47170</v>
+        <v>2348</v>
+      </c>
+      <c r="E3">
+        <f>(B3-$N3)/$N3</f>
+        <v>0.19066560594006896</v>
       </c>
       <c r="F3" s="3">
-        <v>286.298</v>
+        <v>8991</v>
       </c>
       <c r="G3">
-        <f>(E3-$K3)/$K3</f>
-        <v>0.17455179282868527</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="H3">
-        <v>51990</v>
+        <v>196</v>
       </c>
       <c r="I3">
-        <v>14.795</v>
+        <f>(F3-$N3)/$N3</f>
+        <v>0.19212410501193317</v>
       </c>
       <c r="J3">
-        <f>(H3-$K3)/$K3</f>
-        <v>0.29457171314741037</v>
+        <v>10114</v>
       </c>
       <c r="K3">
-        <v>40160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="L3">
+        <v>2033</v>
+      </c>
+      <c r="M3">
+        <f>(J3-$N3)/$N3</f>
+        <v>0.34102360116679925</v>
+      </c>
+      <c r="N3">
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8980</v>
+        <v>4048</v>
       </c>
       <c r="C4">
-        <v>0.95199999999999996</v>
+        <v>0.03</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">(B4-$K4)/$K4</f>
-        <v>0.19066560594006896</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8991</v>
+        <v>32865</v>
+      </c>
+      <c r="E4">
+        <f>(B4-$N4)/$N4</f>
+        <v>0.21817634667469155</v>
       </c>
       <c r="F4" s="3">
-        <v>5.3220000000000001</v>
+        <v>3588</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G15" si="1">(E4-$K4)/$K4</f>
-        <v>0.19212410501193317</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="H4">
-        <v>10114</v>
+        <v>6760</v>
       </c>
       <c r="I4">
-        <v>0.96799999999999997</v>
+        <f>(F4-$N4)/$N4</f>
+        <v>7.974721637074933E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J15" si="2">(H4-$K4)/$K4</f>
-        <v>0.34102360116679925</v>
+        <v>3814</v>
       </c>
       <c r="K4">
-        <v>7542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L4">
+        <v>26912</v>
+      </c>
+      <c r="M4">
+        <f>(J4-$N4)/$N4</f>
+        <v>0.14775804995486005</v>
+      </c>
+      <c r="N4">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4048</v>
+        <v>8191</v>
       </c>
       <c r="C5">
-        <v>3.9E-2</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.21817634667469155</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3588</v>
+        <v>275</v>
+      </c>
+      <c r="E5">
+        <f>(B5-$N5)/$N5</f>
+        <v>0.25474877450980393</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2</v>
+        <v>7968</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>7.974721637074933E-2</v>
+        <v>115.24</v>
       </c>
       <c r="H5">
-        <v>3814</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>5.7000000000000002E-2</v>
+        <f>(F5-$N5)/$N5</f>
+        <v>0.22058823529411764</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0.14775804995486005</v>
+        <v>8413</v>
       </c>
       <c r="K5">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.194</v>
+      </c>
+      <c r="L5">
+        <v>239</v>
+      </c>
+      <c r="M5">
+        <f>(J5-$N5)/$N5</f>
+        <v>0.28875612745098039</v>
+      </c>
+      <c r="N5">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8191</v>
+        <v>41660</v>
       </c>
       <c r="C6">
-        <v>8.1959999999999997</v>
+        <v>43.027999999999999</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.25474877450980393</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7968</v>
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <f>(B6-$N6)/$N6</f>
+        <v>0.19021770184560882</v>
       </c>
       <c r="F6" s="3">
-        <v>119.268</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0.22058823529411764</v>
+        <v>41459</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4010.3139999999999</v>
       </c>
       <c r="H6">
-        <v>8413</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>11.590999999999999</v>
+        <f>(F6-$N6)/$N6</f>
+        <v>0.18447517284726586</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0.28875612745098039</v>
+        <v>44953</v>
       </c>
       <c r="K6">
-        <v>6528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48.731999999999999</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <f>(J6-$N6)/$N6</f>
+        <v>0.28429804011199361</v>
+      </c>
+      <c r="N6">
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>41660</v>
+        <v>24630960</v>
       </c>
       <c r="C7">
-        <v>46.723999999999997</v>
+        <v>266.32100000000003</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.19021770184560882</v>
-      </c>
-      <c r="E7" s="3">
-        <v>41459</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4186.1570000000002</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.18447517284726586</v>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>(B7-$N7)/$N7</f>
+        <v>0.32000920915719488</v>
+      </c>
+      <c r="F7" s="3">
+        <v>22723503</v>
+      </c>
+      <c r="G7" s="7">
+        <v>42221.125</v>
       </c>
       <c r="H7">
-        <v>44953</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>71.691999999999993</v>
+        <f>(F7-$N7)/$N7</f>
+        <v>0.21778579577536344</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0.28429804011199361</v>
+        <v>25086767</v>
       </c>
       <c r="K7">
-        <v>35002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>322.97899999999998</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f>(J7-$N7)/$N7</f>
+        <v>0.34443657364474689</v>
+      </c>
+      <c r="N7">
+        <v>18659688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>24630960</v>
+        <v>511</v>
       </c>
       <c r="C8">
-        <v>282.44600000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.32000920915719488</v>
-      </c>
-      <c r="E8" s="3">
-        <v>22723503</v>
-      </c>
-      <c r="F8" s="4">
-        <v>44646.220999999998</v>
+        <v>2450</v>
+      </c>
+      <c r="E8">
+        <f>(B8-$N8)/$N8</f>
+        <v>0.19953051643192488</v>
+      </c>
+      <c r="F8" s="3">
+        <v>494</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.21778579577536344</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="H8">
-        <v>25086767</v>
+        <v>203</v>
       </c>
       <c r="I8">
-        <v>285.149</v>
+        <f>(F8-$N8)/$N8</f>
+        <v>0.15962441314553991</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>0.34443657364474689</v>
+        <v>581</v>
       </c>
       <c r="K8">
-        <v>18659688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="L8">
+        <v>2212</v>
+      </c>
+      <c r="M8">
+        <f>(J8-$N8)/$N8</f>
+        <v>0.36384976525821594</v>
+      </c>
+      <c r="N8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>49336</v>
+      </c>
+      <c r="C9">
+        <v>6.65</v>
+      </c>
+      <c r="D9">
+        <v>151</v>
+      </c>
+      <c r="E9">
+        <f>(B9-$N9)/$N9</f>
+        <v>0.22848605577689243</v>
+      </c>
+      <c r="F9" s="3">
+        <v>47170</v>
+      </c>
+      <c r="G9">
+        <v>280.74400000000003</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f>(F9-$N9)/$N9</f>
+        <v>0.17455179282868527</v>
+      </c>
+      <c r="J9">
+        <v>51990</v>
+      </c>
+      <c r="K9">
+        <v>7.5469999999999997</v>
+      </c>
+      <c r="L9">
+        <v>133</v>
+      </c>
+      <c r="M9">
+        <f>(J9-$N9)/$N9</f>
+        <v>0.29457171314741037</v>
+      </c>
+      <c r="N9">
+        <v>40160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
-      </c>
-      <c r="B9">
-        <v>511</v>
-      </c>
-      <c r="C9">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.19953051643192488</v>
-      </c>
-      <c r="E9" s="3">
-        <v>494</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.125</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.15962441314553991</v>
-      </c>
-      <c r="H9">
-        <v>581</v>
-      </c>
-      <c r="I9">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0.36384976525821594</v>
-      </c>
-      <c r="K9">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>162430</v>
       </c>
       <c r="C10">
-        <v>19.536000000000001</v>
+        <v>8.7260000000000009</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <f>(B10-$N10)/$N10</f>
         <v>0.2067428418597049</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>156823</v>
       </c>
-      <c r="F10" s="3">
-        <v>435.07</v>
-      </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <v>421.81</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f>(F10-$N10)/$N10</f>
         <v>0.16508670004903345</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>180152</v>
       </c>
-      <c r="I10">
-        <v>17.978999999999999</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
+      <c r="K10">
+        <v>9.8219999999999992</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <f>(J10-$N10)/$N10</f>
         <v>0.33840507570467004</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>134602</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>27807</v>
       </c>
       <c r="C11">
-        <v>1.649</v>
+        <v>1.601</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="E11">
+        <f>(B11-$N11)/$N11</f>
         <v>0.30659712433042008</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>25868</v>
       </c>
-      <c r="F11" s="3">
-        <v>38.345999999999997</v>
-      </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <v>33.802</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <f>(F11-$N11)/$N11</f>
         <v>0.21548726623437647</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>27210</v>
       </c>
-      <c r="I11">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
+      <c r="K11">
+        <v>1.8</v>
+      </c>
+      <c r="L11">
+        <v>556</v>
+      </c>
+      <c r="M11">
+        <f>(J11-$N11)/$N11</f>
         <v>0.27854524950662529</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>21282</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>26947</v>
       </c>
       <c r="C12">
-        <v>3.4260000000000002</v>
+        <v>1.589</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E12">
+        <f>(B12-$N12)/$N12</f>
         <v>0.26547384239691935</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25219</v>
       </c>
-      <c r="F12" s="3">
-        <v>41.043999999999997</v>
-      </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <v>34.317</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <f>(F12-$N12)/$N12</f>
         <v>0.18432422278576124</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>27112</v>
       </c>
-      <c r="I12">
-        <v>6.7169999999999996</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
+      <c r="K12">
+        <v>1.835</v>
+      </c>
+      <c r="L12">
+        <v>545</v>
+      </c>
+      <c r="M12">
+        <f>(J12-$N12)/$N12</f>
         <v>0.27322250399173476</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>21294</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>61979</v>
       </c>
       <c r="C13">
-        <v>69.108999999999995</v>
+        <v>39.296999999999997</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <f>(B13-$N13)/$N13</f>
         <v>0.22058765607152703</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>61119</v>
       </c>
-      <c r="F13" s="4">
-        <v>3277.1320000000001</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="G13" s="7">
+        <v>3089.46</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>(F13-$N13)/$N13</f>
         <v>0.20365118752215527</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>69623</v>
       </c>
-      <c r="I13">
-        <v>68.078999999999994</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
+      <c r="K13">
+        <v>43.673999999999999</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <f>(J13-$N13)/$N13</f>
         <v>0.37112529048012921</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>50778</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>9988</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <v>25148</v>
+      </c>
+      <c r="E14">
+        <f>(B14-$N14)/$N14</f>
         <v>0.45618894882635952</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7712</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.23899999999999999</v>
-      </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H14">
+        <v>4716</v>
+      </c>
+      <c r="I14">
+        <f>(F14-$N14)/$N14</f>
         <v>0.12436215191718909</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>7903</v>
       </c>
-      <c r="I14">
-        <v>0.108</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
+      <c r="K14">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L14">
+        <v>20425</v>
+      </c>
+      <c r="M14">
+        <f>(J14-$N14)/$N14</f>
         <v>0.15220877678961947</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>6859</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>10586</v>
       </c>
       <c r="C15">
-        <v>8.1000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <v>13163</v>
+      </c>
+      <c r="E15">
+        <f>(B15-$N15)/$N15</f>
         <v>0.50948238984742622</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7816</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.53100000000000003</v>
-      </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H15">
+        <v>2036</v>
+      </c>
+      <c r="I15">
+        <f>(F15-$N15)/$N15</f>
         <v>0.11450163981177813</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>8401</v>
       </c>
-      <c r="I15">
-        <v>0.11</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
+      <c r="K15">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L15">
+        <v>11302</v>
+      </c>
+      <c r="M15">
+        <f>(J15-$N15)/$N15</f>
         <v>0.19791815200342222</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>7013</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <f>AVERAGE(D3:D15)</f>
-        <v>0.27437746258988793</v>
-      </c>
-      <c r="G17">
-        <f>AVERAGE(G3:G15)</f>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f>AVERAGE(E3:E15)</f>
+        <v>0.27437746258988782</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(I3:I15)</f>
         <v>0.17202383843030372</v>
       </c>
-      <c r="J17">
-        <f>AVERAGE(J3:J15)</f>
-        <v>0.28277837840086217</v>
+      <c r="M17">
+        <f>AVERAGE(M3:M15)</f>
+        <v>0.28277837840086212</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N15">
+    <sortCondition ref="A3:A15"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFD305-CBEA-F445-83A6-EFA6B94CA3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA35C62-9559-7248-9EEA-8CD5DAD6EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1240" yWindow="-15500" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Instance</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Time(ms)</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,15 +188,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,7 +279,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -521,46 +618,48 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,10 +669,10 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -582,10 +681,10 @@
       <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -594,10 +693,10 @@
       <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -612,21 +711,21 @@
       <c r="D3">
         <v>2348</v>
       </c>
-      <c r="E3">
-        <f>(B3-$N3)/$N3</f>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E15" si="0">(B3-$N3)/$N3</f>
         <v>0.19066560594006896</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="16">
         <v>8991</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>5.1040000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="17">
         <v>196</v>
       </c>
-      <c r="I3">
-        <f>(F3-$N3)/$N3</f>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3:I15" si="1">(F3-$N3)/$N3</f>
         <v>0.19212410501193317</v>
       </c>
       <c r="J3">
@@ -638,8 +737,8 @@
       <c r="L3">
         <v>2033</v>
       </c>
-      <c r="M3">
-        <f>(J3-$N3)/$N3</f>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M15" si="2">(J3-$N3)/$N3</f>
         <v>0.34102360116679925</v>
       </c>
       <c r="N3">
@@ -659,21 +758,21 @@
       <c r="D4">
         <v>32865</v>
       </c>
-      <c r="E4">
-        <f>(B4-$N4)/$N4</f>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
         <v>0.21817634667469155</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="16">
         <v>3588</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="17">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="17">
         <v>6760</v>
       </c>
-      <c r="I4">
-        <f>(F4-$N4)/$N4</f>
+      <c r="I4" s="18">
+        <f t="shared" si="1"/>
         <v>7.974721637074933E-2</v>
       </c>
       <c r="J4">
@@ -685,8 +784,8 @@
       <c r="L4">
         <v>26912</v>
       </c>
-      <c r="M4">
-        <f>(J4-$N4)/$N4</f>
+      <c r="M4" s="7">
+        <f t="shared" si="2"/>
         <v>0.14775804995486005</v>
       </c>
       <c r="N4">
@@ -706,21 +805,21 @@
       <c r="D5">
         <v>275</v>
       </c>
-      <c r="E5">
-        <f>(B5-$N5)/$N5</f>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
         <v>0.25474877450980393</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="16">
         <v>7968</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="17">
         <v>115.24</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="17">
         <v>9</v>
       </c>
-      <c r="I5">
-        <f>(F5-$N5)/$N5</f>
+      <c r="I5" s="18">
+        <f t="shared" si="1"/>
         <v>0.22058823529411764</v>
       </c>
       <c r="J5">
@@ -732,8 +831,8 @@
       <c r="L5">
         <v>239</v>
       </c>
-      <c r="M5">
-        <f>(J5-$N5)/$N5</f>
+      <c r="M5" s="7">
+        <f t="shared" si="2"/>
         <v>0.28875612745098039</v>
       </c>
       <c r="N5">
@@ -753,21 +852,21 @@
       <c r="D6">
         <v>24</v>
       </c>
-      <c r="E6">
-        <f>(B6-$N6)/$N6</f>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>0.19021770184560882</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>41459</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="19">
         <v>4010.3139999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="17">
         <v>1</v>
       </c>
-      <c r="I6">
-        <f>(F6-$N6)/$N6</f>
+      <c r="I6" s="18">
+        <f t="shared" si="1"/>
         <v>0.18447517284726586</v>
       </c>
       <c r="J6">
@@ -779,8 +878,8 @@
       <c r="L6">
         <v>21</v>
       </c>
-      <c r="M6">
-        <f>(J6-$N6)/$N6</f>
+      <c r="M6" s="7">
+        <f t="shared" si="2"/>
         <v>0.28429804011199361</v>
       </c>
       <c r="N6">
@@ -800,21 +899,21 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <f>(B7-$N7)/$N7</f>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>0.32000920915719488</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="16">
         <v>22723503</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="19">
         <v>42221.125</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="17">
         <v>1</v>
       </c>
-      <c r="I7">
-        <f>(F7-$N7)/$N7</f>
+      <c r="I7" s="18">
+        <f t="shared" si="1"/>
         <v>0.21778579577536344</v>
       </c>
       <c r="J7">
@@ -826,8 +925,8 @@
       <c r="L7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <f>(J7-$N7)/$N7</f>
+      <c r="M7" s="7">
+        <f t="shared" si="2"/>
         <v>0.34443657364474689</v>
       </c>
       <c r="N7">
@@ -847,21 +946,21 @@
       <c r="D8">
         <v>2450</v>
       </c>
-      <c r="E8">
-        <f>(B8-$N8)/$N8</f>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>0.19953051643192488</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="16">
         <v>494</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="17">
         <v>4.9340000000000002</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="17">
         <v>203</v>
       </c>
-      <c r="I8">
-        <f>(F8-$N8)/$N8</f>
+      <c r="I8" s="18">
+        <f t="shared" si="1"/>
         <v>0.15962441314553991</v>
       </c>
       <c r="J8">
@@ -873,8 +972,8 @@
       <c r="L8">
         <v>2212</v>
       </c>
-      <c r="M8">
-        <f>(J8-$N8)/$N8</f>
+      <c r="M8" s="7">
+        <f t="shared" si="2"/>
         <v>0.36384976525821594</v>
       </c>
       <c r="N8">
@@ -894,21 +993,21 @@
       <c r="D9">
         <v>151</v>
       </c>
-      <c r="E9">
-        <f>(B9-$N9)/$N9</f>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>0.22848605577689243</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="16">
         <v>47170</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>280.74400000000003</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="17">
         <v>4</v>
       </c>
-      <c r="I9">
-        <f>(F9-$N9)/$N9</f>
+      <c r="I9" s="18">
+        <f t="shared" si="1"/>
         <v>0.17455179282868527</v>
       </c>
       <c r="J9">
@@ -920,8 +1019,8 @@
       <c r="L9">
         <v>133</v>
       </c>
-      <c r="M9">
-        <f>(J9-$N9)/$N9</f>
+      <c r="M9" s="7">
+        <f t="shared" si="2"/>
         <v>0.29457171314741037</v>
       </c>
       <c r="N9">
@@ -941,21 +1040,21 @@
       <c r="D10">
         <v>115</v>
       </c>
-      <c r="E10">
-        <f>(B10-$N10)/$N10</f>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>0.2067428418597049</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="16">
         <v>156823</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="17">
         <v>421.81</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="17">
         <v>3</v>
       </c>
-      <c r="I10">
-        <f>(F10-$N10)/$N10</f>
+      <c r="I10" s="18">
+        <f t="shared" si="1"/>
         <v>0.16508670004903345</v>
       </c>
       <c r="J10">
@@ -967,8 +1066,8 @@
       <c r="L10">
         <v>102</v>
       </c>
-      <c r="M10">
-        <f>(J10-$N10)/$N10</f>
+      <c r="M10" s="7">
+        <f t="shared" si="2"/>
         <v>0.33840507570467004</v>
       </c>
       <c r="N10" s="2">
@@ -988,21 +1087,21 @@
       <c r="D11">
         <v>625</v>
       </c>
-      <c r="E11">
-        <f>(B11-$N11)/$N11</f>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>0.30659712433042008</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="16">
         <v>25868</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="17">
         <v>33.802</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="17">
         <v>30</v>
       </c>
-      <c r="I11">
-        <f>(F11-$N11)/$N11</f>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
         <v>0.21548726623437647</v>
       </c>
       <c r="J11">
@@ -1014,8 +1113,8 @@
       <c r="L11">
         <v>556</v>
       </c>
-      <c r="M11">
-        <f>(J11-$N11)/$N11</f>
+      <c r="M11" s="7">
+        <f t="shared" si="2"/>
         <v>0.27854524950662529</v>
       </c>
       <c r="N11">
@@ -1035,21 +1134,21 @@
       <c r="D12">
         <v>630</v>
       </c>
-      <c r="E12">
-        <f>(B12-$N12)/$N12</f>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>0.26547384239691935</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="16">
         <v>25219</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="17">
         <v>34.317</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="17">
         <v>30</v>
       </c>
-      <c r="I12">
-        <f>(F12-$N12)/$N12</f>
+      <c r="I12" s="18">
+        <f t="shared" si="1"/>
         <v>0.18432422278576124</v>
       </c>
       <c r="J12">
@@ -1061,8 +1160,8 @@
       <c r="L12">
         <v>545</v>
       </c>
-      <c r="M12">
-        <f>(J12-$N12)/$N12</f>
+      <c r="M12" s="7">
+        <f t="shared" si="2"/>
         <v>0.27322250399173476</v>
       </c>
       <c r="N12">
@@ -1082,21 +1181,21 @@
       <c r="D13">
         <v>26</v>
       </c>
-      <c r="E13">
-        <f>(B13-$N13)/$N13</f>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>0.22058765607152703</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="16">
         <v>61119</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="19">
         <v>3089.46</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="17">
         <v>1</v>
       </c>
-      <c r="I13">
-        <f>(F13-$N13)/$N13</f>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
         <v>0.20365118752215527</v>
       </c>
       <c r="J13">
@@ -1108,8 +1207,8 @@
       <c r="L13">
         <v>23</v>
       </c>
-      <c r="M13">
-        <f>(J13-$N13)/$N13</f>
+      <c r="M13" s="7">
+        <f t="shared" si="2"/>
         <v>0.37112529048012921</v>
       </c>
       <c r="N13">
@@ -1129,21 +1228,21 @@
       <c r="D14">
         <v>25148</v>
       </c>
-      <c r="E14">
-        <f>(B14-$N14)/$N14</f>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>0.45618894882635952</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <v>7712</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="17">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="17">
         <v>4716</v>
       </c>
-      <c r="I14">
-        <f>(F14-$N14)/$N14</f>
+      <c r="I14" s="18">
+        <f t="shared" si="1"/>
         <v>0.12436215191718909</v>
       </c>
       <c r="J14">
@@ -1155,8 +1254,8 @@
       <c r="L14">
         <v>20425</v>
       </c>
-      <c r="M14">
-        <f>(J14-$N14)/$N14</f>
+      <c r="M14" s="7">
+        <f t="shared" si="2"/>
         <v>0.15220877678961947</v>
       </c>
       <c r="N14">
@@ -1176,21 +1275,21 @@
       <c r="D15">
         <v>13163</v>
       </c>
-      <c r="E15">
-        <f>(B15-$N15)/$N15</f>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>0.50948238984742622</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="16">
         <v>7816</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="17">
         <v>0.49099999999999999</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="17">
         <v>2036</v>
       </c>
-      <c r="I15">
-        <f>(F15-$N15)/$N15</f>
+      <c r="I15" s="18">
+        <f t="shared" si="1"/>
         <v>0.11450163981177813</v>
       </c>
       <c r="J15">
@@ -1202,24 +1301,27 @@
       <c r="L15">
         <v>11302</v>
       </c>
-      <c r="M15">
-        <f>(J15-$N15)/$N15</f>
+      <c r="M15" s="7">
+        <f t="shared" si="2"/>
         <v>0.19791815200342222</v>
       </c>
       <c r="N15">
         <v>7013</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7">
         <f>AVERAGE(E3:E15)</f>
         <v>0.27437746258988782</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <f>AVERAGE(I3:I15)</f>
         <v>0.17202383843030372</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <f>AVERAGE(M3:M15)</f>
         <v>0.28277837840086212</v>
       </c>

--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA35C62-9559-7248-9EEA-8CD5DAD6EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61A344-77FE-DA49-8973-C9C72277A8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="-3660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Instance</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -279,28 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -316,6 +319,1401 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error NN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.21817634667469155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45618894882635952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50948238984742622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19953051643192488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19066560594006896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26547384239691935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30659712433042008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25474877450980393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22848605577689243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2067428418597049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22058765607152703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19021770184560882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32000920915719488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B54-8C47-9ABD-E46BF1CB19E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Error CI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.974721637074933E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12436215191718909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11450163981177813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15962441314553991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19212410501193317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18432422278576124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21548726623437647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17455179282868527</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16508670004903345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20365118752215527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18447517284726586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21778579577536344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B54-8C47-9ABD-E46BF1CB19E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Error 2AP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.14775804995486005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15220877678961947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19791815200342222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36384976525821594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34102360116679925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27322250399173476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27854524950662529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28875612745098039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29457171314741037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33840507570467004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37112529048012921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28429804011199361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34443657364474689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B54-8C47-9ABD-E46BF1CB19E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="1723130112"/>
+        <c:axId val="1723133520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1723130112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723133520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1723133520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723130112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81989</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179824</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22478</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1841697F-8A91-B309-F176-9AFFFD072348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,728 +2013,774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD008E-1479-1149-A6C0-2F37AA540936}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="7"/>
-    <col min="9" max="9" width="10.83203125" style="7"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>4048</v>
+      </c>
+      <c r="D3">
+        <v>0.03</v>
+      </c>
+      <c r="E3">
+        <v>32865</v>
+      </c>
+      <c r="F3" s="4">
+        <f>(C3-$O3)/$O3</f>
+        <v>0.21817634667469155</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3588</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="I3" s="10">
+        <v>6760</v>
+      </c>
+      <c r="J3" s="11">
+        <f>(G3-$O3)/$O3</f>
+        <v>7.974721637074933E-2</v>
+      </c>
+      <c r="K3">
+        <v>3814</v>
+      </c>
+      <c r="L3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M3">
+        <v>26912</v>
+      </c>
+      <c r="N3" s="4">
+        <f>(K3-$O3)/$O3</f>
+        <v>0.14775804995486005</v>
+      </c>
+      <c r="O3">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>9988</v>
+      </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
+      <c r="E4">
+        <v>25148</v>
+      </c>
+      <c r="F4" s="4">
+        <f>(C4-$O4)/$O4</f>
+        <v>0.45618894882635952</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7712</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4716</v>
+      </c>
+      <c r="J4" s="11">
+        <f>(G4-$O4)/$O4</f>
+        <v>0.12436215191718909</v>
+      </c>
+      <c r="K4">
+        <v>7903</v>
+      </c>
+      <c r="L4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>20425</v>
+      </c>
+      <c r="N4" s="4">
+        <f>(K4-$O4)/$O4</f>
+        <v>0.15220877678961947</v>
+      </c>
+      <c r="O4">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>10586</v>
+      </c>
+      <c r="D5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>13163</v>
+      </c>
+      <c r="F5" s="4">
+        <f>(C5-$O5)/$O5</f>
+        <v>0.50948238984742622</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7816</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2036</v>
+      </c>
+      <c r="J5" s="11">
+        <f>(G5-$O5)/$O5</f>
+        <v>0.11450163981177813</v>
+      </c>
+      <c r="K5">
+        <v>8401</v>
+      </c>
+      <c r="L5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="M5">
+        <v>11302</v>
+      </c>
+      <c r="N5" s="4">
+        <f>(K5-$O5)/$O5</f>
+        <v>0.19791815200342222</v>
+      </c>
+      <c r="O5">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>511</v>
+      </c>
+      <c r="D6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E6">
+        <v>2450</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(C6-$O6)/$O6</f>
+        <v>0.19953051643192488</v>
+      </c>
+      <c r="G6" s="9">
+        <v>494</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4.9340000000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>203</v>
+      </c>
+      <c r="J6" s="11">
+        <f>(G6-$O6)/$O6</f>
+        <v>0.15962441314553991</v>
+      </c>
+      <c r="K6">
+        <v>581</v>
+      </c>
+      <c r="L6">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="M6">
+        <v>2212</v>
+      </c>
+      <c r="N6" s="4">
+        <f>(K6-$O6)/$O6</f>
+        <v>0.36384976525821594</v>
+      </c>
+      <c r="O6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7">
         <v>8980</v>
       </c>
-      <c r="C3">
+      <c r="D7">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E7">
         <v>2348</v>
       </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E15" si="0">(B3-$N3)/$N3</f>
+      <c r="F7" s="4">
+        <f>(C7-$O7)/$O7</f>
         <v>0.19066560594006896</v>
       </c>
-      <c r="F3" s="16">
+      <c r="G7" s="9">
         <v>8991</v>
       </c>
-      <c r="G3" s="17">
+      <c r="H7" s="10">
         <v>5.1040000000000001</v>
       </c>
-      <c r="H3" s="17">
+      <c r="I7" s="10">
         <v>196</v>
       </c>
-      <c r="I3" s="18">
-        <f t="shared" ref="I3:I15" si="1">(F3-$N3)/$N3</f>
+      <c r="J7" s="11">
+        <f>(G7-$O7)/$O7</f>
         <v>0.19212410501193317</v>
       </c>
-      <c r="J3">
+      <c r="K7">
         <v>10114</v>
       </c>
-      <c r="K3">
+      <c r="L7">
         <v>0.49199999999999999</v>
       </c>
-      <c r="L3">
+      <c r="M7">
         <v>2033</v>
       </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M15" si="2">(J3-$N3)/$N3</f>
+      <c r="N7" s="4">
+        <f>(K7-$O7)/$O7</f>
         <v>0.34102360116679925</v>
       </c>
-      <c r="N3">
+      <c r="O7">
         <v>7542</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>4048</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <v>32865</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.21817634667469155</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3588</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="H4" s="17">
-        <v>6760</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" si="1"/>
-        <v>7.974721637074933E-2</v>
-      </c>
-      <c r="J4">
-        <v>3814</v>
-      </c>
-      <c r="K4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L4">
-        <v>26912</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.14775804995486005</v>
-      </c>
-      <c r="N4">
-        <v>3323</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>26947</v>
+      </c>
+      <c r="D8">
+        <v>1.589</v>
+      </c>
+      <c r="E8">
+        <v>630</v>
+      </c>
+      <c r="F8" s="4">
+        <f>(C8-$O8)/$O8</f>
+        <v>0.26547384239691935</v>
+      </c>
+      <c r="G8" s="9">
+        <v>25219</v>
+      </c>
+      <c r="H8" s="10">
+        <v>34.317</v>
+      </c>
+      <c r="I8" s="10">
+        <v>30</v>
+      </c>
+      <c r="J8" s="11">
+        <f>(G8-$O8)/$O8</f>
+        <v>0.18432422278576124</v>
+      </c>
+      <c r="K8">
+        <v>27112</v>
+      </c>
+      <c r="L8">
+        <v>1.835</v>
+      </c>
+      <c r="M8">
+        <v>545</v>
+      </c>
+      <c r="N8" s="4">
+        <f>(K8-$O8)/$O8</f>
+        <v>0.27322250399173476</v>
+      </c>
+      <c r="O8">
+        <v>21294</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>27807</v>
+      </c>
+      <c r="D9">
+        <v>1.601</v>
+      </c>
+      <c r="E9">
+        <v>625</v>
+      </c>
+      <c r="F9" s="4">
+        <f>(C9-$O9)/$O9</f>
+        <v>0.30659712433042008</v>
+      </c>
+      <c r="G9" s="9">
+        <v>25868</v>
+      </c>
+      <c r="H9" s="10">
+        <v>33.802</v>
+      </c>
+      <c r="I9" s="10">
+        <v>30</v>
+      </c>
+      <c r="J9" s="11">
+        <f>(G9-$O9)/$O9</f>
+        <v>0.21548726623437647</v>
+      </c>
+      <c r="K9">
+        <v>27210</v>
+      </c>
+      <c r="L9">
+        <v>1.8</v>
+      </c>
+      <c r="M9">
+        <v>556</v>
+      </c>
+      <c r="N9" s="4">
+        <f>(K9-$O9)/$O9</f>
+        <v>0.27854524950662529</v>
+      </c>
+      <c r="O9">
+        <v>21282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
         <v>8191</v>
       </c>
-      <c r="C5">
+      <c r="D10">
         <v>3.6469999999999998</v>
       </c>
-      <c r="D5">
+      <c r="E10">
         <v>275</v>
       </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
+      <c r="F10" s="4">
+        <f>(C10-$O10)/$O10</f>
         <v>0.25474877450980393</v>
       </c>
-      <c r="F5" s="16">
+      <c r="G10" s="9">
         <v>7968</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H10" s="10">
         <v>115.24</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I10" s="10">
         <v>9</v>
       </c>
-      <c r="I5" s="18">
-        <f t="shared" si="1"/>
+      <c r="J10" s="11">
+        <f>(G10-$O10)/$O10</f>
         <v>0.22058823529411764</v>
       </c>
-      <c r="J5">
+      <c r="K10">
         <v>8413</v>
       </c>
-      <c r="K5">
+      <c r="L10">
         <v>4.194</v>
       </c>
-      <c r="L5">
+      <c r="M10">
         <v>239</v>
       </c>
-      <c r="M5" s="7">
-        <f t="shared" si="2"/>
+      <c r="N10" s="4">
+        <f>(K10-$O10)/$O10</f>
         <v>0.28875612745098039</v>
       </c>
-      <c r="N5">
+      <c r="O10">
         <v>6528</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>41660</v>
-      </c>
-      <c r="C6">
-        <v>43.027999999999999</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19021770184560882</v>
-      </c>
-      <c r="F6" s="16">
-        <v>41459</v>
-      </c>
-      <c r="G6" s="19">
-        <v>4010.3139999999999</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>0.18447517284726586</v>
-      </c>
-      <c r="J6">
-        <v>44953</v>
-      </c>
-      <c r="K6">
-        <v>48.731999999999999</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.28429804011199361</v>
-      </c>
-      <c r="N6">
-        <v>35002</v>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>49336</v>
+      </c>
+      <c r="D11">
+        <v>6.65</v>
+      </c>
+      <c r="E11">
+        <v>151</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(C11-$O11)/$O11</f>
+        <v>0.22848605577689243</v>
+      </c>
+      <c r="G11" s="9">
+        <v>47170</v>
+      </c>
+      <c r="H11" s="10">
+        <v>280.74400000000003</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="11">
+        <f>(G11-$O11)/$O11</f>
+        <v>0.17455179282868527</v>
+      </c>
+      <c r="K11">
+        <v>51990</v>
+      </c>
+      <c r="L11">
+        <v>7.5469999999999997</v>
+      </c>
+      <c r="M11">
+        <v>133</v>
+      </c>
+      <c r="N11" s="4">
+        <f>(K11-$O11)/$O11</f>
+        <v>0.29457171314741037</v>
+      </c>
+      <c r="O11">
+        <v>40160</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>24630960</v>
-      </c>
-      <c r="C7">
-        <v>266.32100000000003</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.32000920915719488</v>
-      </c>
-      <c r="F7" s="16">
-        <v>22723503</v>
-      </c>
-      <c r="G7" s="19">
-        <v>42221.125</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>0.21778579577536344</v>
-      </c>
-      <c r="J7">
-        <v>25086767</v>
-      </c>
-      <c r="K7">
-        <v>322.97899999999998</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.34443657364474689</v>
-      </c>
-      <c r="N7">
-        <v>18659688</v>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>162430</v>
+      </c>
+      <c r="D12">
+        <v>8.7260000000000009</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(C12-$O12)/$O12</f>
+        <v>0.2067428418597049</v>
+      </c>
+      <c r="G12" s="9">
+        <v>156823</v>
+      </c>
+      <c r="H12" s="10">
+        <v>421.81</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3</v>
+      </c>
+      <c r="J12" s="11">
+        <f>(G12-$O12)/$O12</f>
+        <v>0.16508670004903345</v>
+      </c>
+      <c r="K12">
+        <v>180152</v>
+      </c>
+      <c r="L12">
+        <v>9.8219999999999992</v>
+      </c>
+      <c r="M12">
+        <v>102</v>
+      </c>
+      <c r="N12" s="4">
+        <f>(K12-$O12)/$O12</f>
+        <v>0.33840507570467004</v>
+      </c>
+      <c r="O12" s="2">
+        <v>134602</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>511</v>
-      </c>
-      <c r="C8">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D8">
-        <v>2450</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19953051643192488</v>
-      </c>
-      <c r="F8" s="16">
-        <v>494</v>
-      </c>
-      <c r="G8" s="17">
-        <v>4.9340000000000002</v>
-      </c>
-      <c r="H8" s="17">
-        <v>203</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>0.15962441314553991</v>
-      </c>
-      <c r="J8">
-        <v>581</v>
-      </c>
-      <c r="K8">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="L8">
-        <v>2212</v>
-      </c>
-      <c r="M8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.36384976525821594</v>
-      </c>
-      <c r="N8">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>49336</v>
-      </c>
-      <c r="C9">
-        <v>6.65</v>
-      </c>
-      <c r="D9">
-        <v>151</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.22848605577689243</v>
-      </c>
-      <c r="F9" s="16">
-        <v>47170</v>
-      </c>
-      <c r="G9" s="17">
-        <v>280.74400000000003</v>
-      </c>
-      <c r="H9" s="17">
-        <v>4</v>
-      </c>
-      <c r="I9" s="18">
-        <f t="shared" si="1"/>
-        <v>0.17455179282868527</v>
-      </c>
-      <c r="J9">
-        <v>51990</v>
-      </c>
-      <c r="K9">
-        <v>7.5469999999999997</v>
-      </c>
-      <c r="L9">
-        <v>133</v>
-      </c>
-      <c r="M9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.29457171314741037</v>
-      </c>
-      <c r="N9">
-        <v>40160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>162430</v>
-      </c>
-      <c r="C10">
-        <v>8.7260000000000009</v>
-      </c>
-      <c r="D10">
-        <v>115</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.2067428418597049</v>
-      </c>
-      <c r="F10" s="16">
-        <v>156823</v>
-      </c>
-      <c r="G10" s="17">
-        <v>421.81</v>
-      </c>
-      <c r="H10" s="17">
-        <v>3</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="1"/>
-        <v>0.16508670004903345</v>
-      </c>
-      <c r="J10">
-        <v>180152</v>
-      </c>
-      <c r="K10">
-        <v>9.8219999999999992</v>
-      </c>
-      <c r="L10">
-        <v>102</v>
-      </c>
-      <c r="M10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33840507570467004</v>
-      </c>
-      <c r="N10" s="2">
-        <v>134602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>27807</v>
-      </c>
-      <c r="C11">
-        <v>1.601</v>
-      </c>
-      <c r="D11">
-        <v>625</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.30659712433042008</v>
-      </c>
-      <c r="F11" s="16">
-        <v>25868</v>
-      </c>
-      <c r="G11" s="17">
-        <v>33.802</v>
-      </c>
-      <c r="H11" s="17">
-        <v>30</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="1"/>
-        <v>0.21548726623437647</v>
-      </c>
-      <c r="J11">
-        <v>27210</v>
-      </c>
-      <c r="K11">
-        <v>1.8</v>
-      </c>
-      <c r="L11">
-        <v>556</v>
-      </c>
-      <c r="M11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27854524950662529</v>
-      </c>
-      <c r="N11">
-        <v>21282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>26947</v>
-      </c>
-      <c r="C12">
-        <v>1.589</v>
-      </c>
-      <c r="D12">
-        <v>630</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.26547384239691935</v>
-      </c>
-      <c r="F12" s="16">
-        <v>25219</v>
-      </c>
-      <c r="G12" s="17">
-        <v>34.317</v>
-      </c>
-      <c r="H12" s="17">
-        <v>30</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="1"/>
-        <v>0.18432422278576124</v>
-      </c>
-      <c r="J12">
-        <v>27112</v>
-      </c>
-      <c r="K12">
-        <v>1.835</v>
-      </c>
-      <c r="L12">
-        <v>545</v>
-      </c>
-      <c r="M12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27322250399173476</v>
-      </c>
-      <c r="N12">
-        <v>21294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
+        <v>442</v>
+      </c>
+      <c r="C13">
         <v>61979</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>39.296999999999997</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>26</v>
       </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
+      <c r="F13" s="4">
+        <f>(C13-$O13)/$O13</f>
         <v>0.22058765607152703</v>
       </c>
-      <c r="F13" s="16">
+      <c r="G13" s="9">
         <v>61119</v>
       </c>
-      <c r="G13" s="19">
+      <c r="H13" s="12">
         <v>3089.46</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="18">
-        <f t="shared" si="1"/>
+      <c r="J13" s="11">
+        <f>(G13-$O13)/$O13</f>
         <v>0.20365118752215527</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>69623</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>43.673999999999999</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>23</v>
       </c>
-      <c r="M13" s="7">
-        <f t="shared" si="2"/>
+      <c r="N13" s="4">
+        <f>(K13-$O13)/$O13</f>
         <v>0.37112529048012921</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>50778</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>9988</v>
+        <v>493</v>
       </c>
       <c r="C14">
-        <v>0.04</v>
+        <v>41660</v>
       </c>
       <c r="D14">
-        <v>25148</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.45618894882635952</v>
-      </c>
-      <c r="F14" s="16">
-        <v>7712</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H14" s="17">
-        <v>4716</v>
-      </c>
-      <c r="I14" s="18">
-        <f t="shared" si="1"/>
-        <v>0.12436215191718909</v>
-      </c>
-      <c r="J14">
-        <v>7903</v>
+        <v>43.027999999999999</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4">
+        <f>(C14-$O14)/$O14</f>
+        <v>0.19021770184560882</v>
+      </c>
+      <c r="G14" s="9">
+        <v>41459</v>
+      </c>
+      <c r="H14" s="12">
+        <v>4010.3139999999999</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <f>(G14-$O14)/$O14</f>
+        <v>0.18447517284726586</v>
       </c>
       <c r="K14">
-        <v>4.9000000000000002E-2</v>
+        <v>44953</v>
       </c>
       <c r="L14">
-        <v>20425</v>
-      </c>
-      <c r="M14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.15220877678961947</v>
-      </c>
-      <c r="N14">
-        <v>6859</v>
+        <v>48.731999999999999</v>
+      </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4">
+        <f>(K14-$O14)/$O14</f>
+        <v>0.28429804011199361</v>
+      </c>
+      <c r="O14">
+        <v>35002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>10586</v>
+        <v>1000</v>
       </c>
       <c r="C15">
-        <v>7.5999999999999998E-2</v>
+        <v>24630960</v>
       </c>
       <c r="D15">
-        <v>13163</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.50948238984742622</v>
-      </c>
-      <c r="F15" s="16">
-        <v>7816</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="H15" s="17">
-        <v>2036</v>
-      </c>
-      <c r="I15" s="18">
-        <f t="shared" si="1"/>
-        <v>0.11450163981177813</v>
-      </c>
-      <c r="J15">
-        <v>8401</v>
+        <v>266.32100000000003</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <f>(C15-$O15)/$O15</f>
+        <v>0.32000920915719488</v>
+      </c>
+      <c r="G15" s="9">
+        <v>22723503</v>
+      </c>
+      <c r="H15" s="12">
+        <v>42221.125</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <f>(G15-$O15)/$O15</f>
+        <v>0.21778579577536344</v>
       </c>
       <c r="K15">
-        <v>8.7999999999999995E-2</v>
+        <v>25086767</v>
       </c>
       <c r="L15">
-        <v>11302</v>
-      </c>
-      <c r="M15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.19791815200342222</v>
-      </c>
-      <c r="N15">
-        <v>7013</v>
+        <v>322.97899999999998</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4">
+        <f>(K15-$O15)/$O15</f>
+        <v>0.34443657364474689</v>
+      </c>
+      <c r="O15">
+        <v>18659688</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7">
-        <f>AVERAGE(E3:E15)</f>
-        <v>0.27437746258988782</v>
-      </c>
-      <c r="I17" s="7">
-        <f>AVERAGE(I3:I15)</f>
-        <v>0.17202383843030372</v>
-      </c>
-      <c r="M17" s="7">
-        <f>AVERAGE(M3:M15)</f>
+      <c r="F17" s="4">
+        <f>AVERAGE(F3:F15)</f>
+        <v>0.27437746258988793</v>
+      </c>
+      <c r="J17" s="4">
+        <f>AVERAGE(J3:J15)</f>
+        <v>0.17202383843030369</v>
+      </c>
+      <c r="N17" s="4">
+        <f>AVERAGE(N3:N15)</f>
         <v>0.28277837840086212</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N15">
-    <sortCondition ref="A3:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O15">
+    <sortCondition ref="B3:B15"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61A344-77FE-DA49-8973-C9C72277A8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A74BF-F997-1647-B4C2-10B26A3FA423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$3:$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$L$3:$L$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -310,6 +315,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5B9BD5"/>
+      <color rgb="FF71AD47"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,8 +530,184 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Error 2AP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.14775804995486005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15220877678961947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19791815200342222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36384976525821594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34102360116679925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27322250399173476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27854524950662529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28875612745098039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29457171314741037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33840507570467004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37112529048012921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28429804011199361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34443657364474689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B54-8C47-9ABD-E46BF1CB19E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Error CI</c:v>
           </c:tx>
@@ -691,182 +878,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B54-8C47-9ABD-E46BF1CB19E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Error 2AP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$3:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>burma14.tsp</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ulysses16.tsp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ulysses22.tsp</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>eil51.tsp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>berlin52.tsp</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>kroD100.tsp</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>kroA100.tsp</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ch150.tsp</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>gr202.tsp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>gr229.tsp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pcb442.tsp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>d493.tsp</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>dsj1000.tsp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$N$3:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.14775804995486005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15220877678961947</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19791815200342222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36384976525821594</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34102360116679925</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27322250399173476</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27854524950662529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28875612745098039</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29457171314741037</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.33840507570467004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37112529048012921</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.28429804011199361</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34443657364474689</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B54-8C47-9ABD-E46BF1CB19E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,6 +1098,1686 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error NN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="71AD47"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.21817634667469155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45618894882635952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50948238984742622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19953051643192488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19066560594006896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26547384239691935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30659712433042008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25474877450980393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22848605577689243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2067428418597049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22058765607152703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19021770184560882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32000920915719488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A19-904F-B356-04737F7E2155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Error 2AP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.14775804995486005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15220877678961947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19791815200342222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36384976525821594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34102360116679925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27322250399173476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27854524950662529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28875612745098039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29457171314741037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33840507570467004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37112529048012921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28429804011199361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34443657364474689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A19-904F-B356-04737F7E2155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1765575616"/>
+        <c:axId val="1765577264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765575616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765577264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1765577264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765575616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error NN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.21817634667469155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45618894882635952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50948238984742622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19953051643192488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19066560594006896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26547384239691935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30659712433042008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25474877450980393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22848605577689243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2067428418597049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22058765607152703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19021770184560882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32000920915719488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A47-BE40-A0F6-765F55CD7267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Error 2AP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.14775804995486005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15220877678961947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19791815200342222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36384976525821594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34102360116679925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27322250399173476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27854524950662529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28875612745098039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29457171314741037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33840507570467004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37112529048012921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28429804011199361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34443657364474689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A47-BE40-A0F6-765F55CD7267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1976685248"/>
+        <c:axId val="1976914160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1976685248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1976914160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1976914160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1976685248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time NN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7260000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.296999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.32100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47AE-F448-A9DA-D6699FE2A719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Time 2AP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gr202.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gr229.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb442.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d493.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dsj1000.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$11:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322.97899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47AE-F448-A9DA-D6699FE2A719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1765656640"/>
+        <c:axId val="290857695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765656640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290857695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="290857695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765656640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time NN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6469999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF92-0F47-BED3-7A8EB283A72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Time 2AP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>burma14.tsp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ulysses16.tsp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ulysses22.tsp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>eil51.tsp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>berlin52.tsp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kroD100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kroA100.tsp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ch150.tsp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF92-0F47-BED3-7A8EB283A72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1765656640"/>
+        <c:axId val="290857695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765656640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290857695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="290857695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765656640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1124,6 +2815,154 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
   <cs:axisTitle>
@@ -1671,6 +3510,2020 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1708,6 +5561,152 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>343911</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>719292</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549C70D5-9B3B-E6A1-42F7-3579CA53DB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>815947</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>382124</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22478</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3AE395-62B1-1B8F-68E0-AF3CB0D4D1B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB8EE1B-D7C4-27C8-F454-E213A9D2ABE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283633</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73D2506-889C-B149-889C-DFABBFC67BD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2015,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD008E-1479-1149-A6C0-2F37AA540936}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2118,7 +6117,7 @@
         <v>32865</v>
       </c>
       <c r="F3" s="4">
-        <f>(C3-$O3)/$O3</f>
+        <f t="shared" ref="F3:F15" si="0">(C3-$O3)/$O3</f>
         <v>0.21817634667469155</v>
       </c>
       <c r="G3" s="9">
@@ -2131,7 +6130,7 @@
         <v>6760</v>
       </c>
       <c r="J3" s="11">
-        <f>(G3-$O3)/$O3</f>
+        <f t="shared" ref="J3:J15" si="1">(G3-$O3)/$O3</f>
         <v>7.974721637074933E-2</v>
       </c>
       <c r="K3">
@@ -2144,7 +6143,7 @@
         <v>26912</v>
       </c>
       <c r="N3" s="4">
-        <f>(K3-$O3)/$O3</f>
+        <f t="shared" ref="N3:N15" si="2">(K3-$O3)/$O3</f>
         <v>0.14775804995486005</v>
       </c>
       <c r="O3">
@@ -2168,7 +6167,7 @@
         <v>25148</v>
       </c>
       <c r="F4" s="4">
-        <f>(C4-$O4)/$O4</f>
+        <f t="shared" si="0"/>
         <v>0.45618894882635952</v>
       </c>
       <c r="G4" s="9">
@@ -2181,7 +6180,7 @@
         <v>4716</v>
       </c>
       <c r="J4" s="11">
-        <f>(G4-$O4)/$O4</f>
+        <f t="shared" si="1"/>
         <v>0.12436215191718909</v>
       </c>
       <c r="K4">
@@ -2194,7 +6193,7 @@
         <v>20425</v>
       </c>
       <c r="N4" s="4">
-        <f>(K4-$O4)/$O4</f>
+        <f t="shared" si="2"/>
         <v>0.15220877678961947</v>
       </c>
       <c r="O4">
@@ -2218,7 +6217,7 @@
         <v>13163</v>
       </c>
       <c r="F5" s="4">
-        <f>(C5-$O5)/$O5</f>
+        <f t="shared" si="0"/>
         <v>0.50948238984742622</v>
       </c>
       <c r="G5" s="9">
@@ -2231,7 +6230,7 @@
         <v>2036</v>
       </c>
       <c r="J5" s="11">
-        <f>(G5-$O5)/$O5</f>
+        <f t="shared" si="1"/>
         <v>0.11450163981177813</v>
       </c>
       <c r="K5">
@@ -2244,7 +6243,7 @@
         <v>11302</v>
       </c>
       <c r="N5" s="4">
-        <f>(K5-$O5)/$O5</f>
+        <f t="shared" si="2"/>
         <v>0.19791815200342222</v>
       </c>
       <c r="O5">
@@ -2268,7 +6267,7 @@
         <v>2450</v>
       </c>
       <c r="F6" s="4">
-        <f>(C6-$O6)/$O6</f>
+        <f t="shared" si="0"/>
         <v>0.19953051643192488</v>
       </c>
       <c r="G6" s="9">
@@ -2281,7 +6280,7 @@
         <v>203</v>
       </c>
       <c r="J6" s="11">
-        <f>(G6-$O6)/$O6</f>
+        <f t="shared" si="1"/>
         <v>0.15962441314553991</v>
       </c>
       <c r="K6">
@@ -2294,7 +6293,7 @@
         <v>2212</v>
       </c>
       <c r="N6" s="4">
-        <f>(K6-$O6)/$O6</f>
+        <f t="shared" si="2"/>
         <v>0.36384976525821594</v>
       </c>
       <c r="O6">
@@ -2318,7 +6317,7 @@
         <v>2348</v>
       </c>
       <c r="F7" s="4">
-        <f>(C7-$O7)/$O7</f>
+        <f t="shared" si="0"/>
         <v>0.19066560594006896</v>
       </c>
       <c r="G7" s="9">
@@ -2331,7 +6330,7 @@
         <v>196</v>
       </c>
       <c r="J7" s="11">
-        <f>(G7-$O7)/$O7</f>
+        <f t="shared" si="1"/>
         <v>0.19212410501193317</v>
       </c>
       <c r="K7">
@@ -2344,7 +6343,7 @@
         <v>2033</v>
       </c>
       <c r="N7" s="4">
-        <f>(K7-$O7)/$O7</f>
+        <f t="shared" si="2"/>
         <v>0.34102360116679925</v>
       </c>
       <c r="O7">
@@ -2368,7 +6367,7 @@
         <v>630</v>
       </c>
       <c r="F8" s="4">
-        <f>(C8-$O8)/$O8</f>
+        <f t="shared" si="0"/>
         <v>0.26547384239691935</v>
       </c>
       <c r="G8" s="9">
@@ -2381,7 +6380,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="11">
-        <f>(G8-$O8)/$O8</f>
+        <f t="shared" si="1"/>
         <v>0.18432422278576124</v>
       </c>
       <c r="K8">
@@ -2394,7 +6393,7 @@
         <v>545</v>
       </c>
       <c r="N8" s="4">
-        <f>(K8-$O8)/$O8</f>
+        <f t="shared" si="2"/>
         <v>0.27322250399173476</v>
       </c>
       <c r="O8">
@@ -2418,7 +6417,7 @@
         <v>625</v>
       </c>
       <c r="F9" s="4">
-        <f>(C9-$O9)/$O9</f>
+        <f t="shared" si="0"/>
         <v>0.30659712433042008</v>
       </c>
       <c r="G9" s="9">
@@ -2431,7 +6430,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="11">
-        <f>(G9-$O9)/$O9</f>
+        <f t="shared" si="1"/>
         <v>0.21548726623437647</v>
       </c>
       <c r="K9">
@@ -2444,7 +6443,7 @@
         <v>556</v>
       </c>
       <c r="N9" s="4">
-        <f>(K9-$O9)/$O9</f>
+        <f t="shared" si="2"/>
         <v>0.27854524950662529</v>
       </c>
       <c r="O9">
@@ -2468,7 +6467,7 @@
         <v>275</v>
       </c>
       <c r="F10" s="4">
-        <f>(C10-$O10)/$O10</f>
+        <f t="shared" si="0"/>
         <v>0.25474877450980393</v>
       </c>
       <c r="G10" s="9">
@@ -2481,7 +6480,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="11">
-        <f>(G10-$O10)/$O10</f>
+        <f t="shared" si="1"/>
         <v>0.22058823529411764</v>
       </c>
       <c r="K10">
@@ -2494,7 +6493,7 @@
         <v>239</v>
       </c>
       <c r="N10" s="4">
-        <f>(K10-$O10)/$O10</f>
+        <f t="shared" si="2"/>
         <v>0.28875612745098039</v>
       </c>
       <c r="O10">
@@ -2518,7 +6517,7 @@
         <v>151</v>
       </c>
       <c r="F11" s="4">
-        <f>(C11-$O11)/$O11</f>
+        <f t="shared" si="0"/>
         <v>0.22848605577689243</v>
       </c>
       <c r="G11" s="9">
@@ -2531,7 +6530,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="11">
-        <f>(G11-$O11)/$O11</f>
+        <f t="shared" si="1"/>
         <v>0.17455179282868527</v>
       </c>
       <c r="K11">
@@ -2544,7 +6543,7 @@
         <v>133</v>
       </c>
       <c r="N11" s="4">
-        <f>(K11-$O11)/$O11</f>
+        <f t="shared" si="2"/>
         <v>0.29457171314741037</v>
       </c>
       <c r="O11">
@@ -2568,7 +6567,7 @@
         <v>115</v>
       </c>
       <c r="F12" s="4">
-        <f>(C12-$O12)/$O12</f>
+        <f t="shared" si="0"/>
         <v>0.2067428418597049</v>
       </c>
       <c r="G12" s="9">
@@ -2581,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="11">
-        <f>(G12-$O12)/$O12</f>
+        <f t="shared" si="1"/>
         <v>0.16508670004903345</v>
       </c>
       <c r="K12">
@@ -2594,7 +6593,7 @@
         <v>102</v>
       </c>
       <c r="N12" s="4">
-        <f>(K12-$O12)/$O12</f>
+        <f t="shared" si="2"/>
         <v>0.33840507570467004</v>
       </c>
       <c r="O12" s="2">
@@ -2618,7 +6617,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="4">
-        <f>(C13-$O13)/$O13</f>
+        <f t="shared" si="0"/>
         <v>0.22058765607152703</v>
       </c>
       <c r="G13" s="9">
@@ -2631,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="11">
-        <f>(G13-$O13)/$O13</f>
+        <f t="shared" si="1"/>
         <v>0.20365118752215527</v>
       </c>
       <c r="K13">
@@ -2644,7 +6643,7 @@
         <v>23</v>
       </c>
       <c r="N13" s="4">
-        <f>(K13-$O13)/$O13</f>
+        <f t="shared" si="2"/>
         <v>0.37112529048012921</v>
       </c>
       <c r="O13">
@@ -2668,7 +6667,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4">
-        <f>(C14-$O14)/$O14</f>
+        <f t="shared" si="0"/>
         <v>0.19021770184560882</v>
       </c>
       <c r="G14" s="9">
@@ -2681,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="11">
-        <f>(G14-$O14)/$O14</f>
+        <f t="shared" si="1"/>
         <v>0.18447517284726586</v>
       </c>
       <c r="K14">
@@ -2694,7 +6693,7 @@
         <v>21</v>
       </c>
       <c r="N14" s="4">
-        <f>(K14-$O14)/$O14</f>
+        <f t="shared" si="2"/>
         <v>0.28429804011199361</v>
       </c>
       <c r="O14">
@@ -2718,7 +6717,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4">
-        <f>(C15-$O15)/$O15</f>
+        <f t="shared" si="0"/>
         <v>0.32000920915719488</v>
       </c>
       <c r="G15" s="9">
@@ -2731,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="11">
-        <f>(G15-$O15)/$O15</f>
+        <f t="shared" si="1"/>
         <v>0.21778579577536344</v>
       </c>
       <c r="K15">
@@ -2744,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="4">
-        <f>(K15-$O15)/$O15</f>
+        <f t="shared" si="2"/>
         <v>0.34443657364474689</v>
       </c>
       <c r="O15">

--- a/second assignment/result.xlsx
+++ b/second assignment/result.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/second assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A74BF-F997-1647-B4C2-10B26A3FA423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F100966-7C71-0E46-A874-7A8477EE4873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
+    <workbookView xWindow="-4220" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{C8CDD62A-8590-BD4B-8D49-6903D2629F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$3:$A$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$D$3:$D$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$L$3:$L$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -361,9 +356,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:srgbClr val="71AD47">
                 <a:alpha val="70000"/>
-              </a:schemeClr>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -537,9 +532,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
+              <a:srgbClr val="5B9BD5">
                 <a:alpha val="70000"/>
-              </a:schemeClr>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1354,7 +1349,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2177,7 +2171,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6014,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD008E-1479-1149-A6C0-2F37AA540936}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
